--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145830.2553317646</v>
+        <v>25198825.83472113</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145830.2553317646</v>
+        <v>25198825.83472113</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8780.430208855345</v>
+        <v>966250.2237955247</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8780.430208855345</v>
+        <v>966250.2237955247</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264658431.847354</v>
+        <v>50101813.07828155</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9074.956330248522</v>
+        <v>992342.6951898243</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18138.44194144603</v>
+        <v>2026904.296796531</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27202.24605056521</v>
+        <v>3061529.279489656</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36644.11286106634</v>
+        <v>4076384.230496274</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45841.18458999321</v>
+        <v>5110369.806727869</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55046.65912606344</v>
+        <v>6146027.541580989</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64252.13366213368</v>
+        <v>7181685.276434107</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73457.60819820393</v>
+        <v>8217343.011287224</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82905.17645634447</v>
+        <v>9249997.864055516</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91866.89079736535</v>
+        <v>10280535.30068346</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100846.1303194173</v>
+        <v>11314560.24833659</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109678.6919283942</v>
+        <v>12346022.58661328</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118521.7676549169</v>
+        <v>13379577.23428161</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>127707.0649350079</v>
+        <v>14379845.14275214</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137861.4879557442</v>
+        <v>15278473.98507571</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>344</v>
@@ -27055,10 +27055,10 @@
         <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>310</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
